--- a/crawler/tmp/chromedriver/crawl.xlsx
+++ b/crawler/tmp/chromedriver/crawl.xlsx
@@ -73,12 +73,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.38988764044944"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.58988764044944"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="15.18988764044944"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.28988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.98988764044944"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.18988764044944"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.98988764044944"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="55.88988764044944"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.68988764044944"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="59.18988764044944"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -116,17 +116,17 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Lila Torres</t>
+          <t>Todd Perry</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>1-677-441-1677</t>
+          <t>1-156-556-2385</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>nulla@yahoo.com</t>
+          <t>enim.nisl@outlook.ca</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
@@ -136,1693 +136,1693 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>Western Visayas</t>
+          <t>Gauteng</t>
         </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>luctus. Curabitur egestas nunc sed libero. Proin sed turpis nec</t>
+          <t>Etiam vestibulum massa rutrum magna. Cras convallis convallis dolor. Quisque</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>Deacon Anthony</t>
+          <t>Jolie Kane</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>1-454-672-0784</t>
+          <t>(670) 378-7167</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>ullamcorper@google.org</t>
+          <t>mollis.phasellus.libero@google.couk</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>Vaupés</t>
+          <t>North Region</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>In scelerisque scelerisque dui. Suspendisse ac metus vitae velit egestas</t>
+          <t>Aliquam tincidunt, nunc ac mattis ornare, lectus ante dictum mi,</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Jenna Lewis</t>
+          <t>Madaline Alexander</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>1-742-832-1249</t>
+          <t>1-881-574-0332</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>nec.metus@aol.org</t>
+          <t>est.arcu@protonmail.couk</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>Luik</t>
+          <t>FATA</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>Mauris ut quam vel sapien imperdiet ornare. In faucibus. Morbi</t>
+          <t>In scelerisque scelerisque dui. Suspendisse ac metus vitae velit egestas</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>Akeem Walton</t>
+          <t>Scarlett Wade</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>(921) 166-5767</t>
+          <t>(401) 463-4234</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>id.ante@protonmail.net</t>
+          <t>in.cursus@icloud.couk</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>North Island</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>nec mauris blandit mattis. Cras eget nisi dictum augue malesuada</t>
+          <t>tincidunt vehicula risus. Nulla eget metus eu erat semper rutrum.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>Catherine Zimmerman</t>
+          <t>Lyle Salazar</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>1-644-355-1864</t>
+          <t>1-846-711-7723</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>vestibulum.accumsan.neque@aol.ca</t>
+          <t>integer.tincidunt.aliquam@hotmail.com</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>Lima</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>tincidunt orci quis lectus. Nullam suscipit, est ac facilisis facilisis,</t>
+          <t>placerat eget, venenatis a, magna. Lorem ipsum dolor sit amet,</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>Anne Hobbs</t>
+          <t>Harlan Holden</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>(675) 415-0198</t>
+          <t>(690) 978-8617</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>ante.bibendum.ullamcorper@google.couk</t>
+          <t>molestie@google.couk</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Opolskie</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>eros nec tellus. Nunc lectus pede, ultrices a, auctor non,</t>
+          <t>gravida molestie arcu. Sed eu nibh vulputate mauris sagittis placerat.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>Brennan Barr</t>
+          <t>Jin Cleveland</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>(346) 380-2427</t>
+          <t>1-810-753-6456</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>mi.tempor@google.ca</t>
+          <t>metus.facilisis.lorem@google.couk</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>Volyn oblast</t>
+          <t>Vermont</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>Cras convallis convallis dolor. Quisque tincidunt pede ac urna. Ut</t>
+          <t>Quisque imperdiet, erat nonummy ultricies ornare, elit elit fermentum risus,</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>Igor Mccray</t>
+          <t>Alden Dillon</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>1-740-589-1724</t>
+          <t>(594) 494-8713</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>sapien.molestie.orci@icloud.com</t>
+          <t>fames.ac.turpis@aol.edu</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>Maranhão</t>
+          <t>Gauteng</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>sit amet ornare lectus justo eu arcu. Morbi sit amet</t>
+          <t>Mauris vestibulum, neque sed dictum eleifend, nunc risus varius orci,</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>Sylvia Meadows</t>
+          <t>Darrel Hanson</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>1-451-282-1611</t>
+          <t>1-238-655-4124</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>neque.tellus@outlook.org</t>
+          <t>in.faucibus@hotmail.net</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>Huáběi</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>aliquam eros turpis non enim. Mauris quis turpis vitae purus</t>
+          <t>Morbi non sapien molestie orci tincidunt adipiscing. Mauris molestie pharetra</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>Chester Huff</t>
+          <t>Dolan Mccullough</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>(731) 668-3521</t>
+          <t>(603) 255-7608</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>vivamus.molestie@hotmail.net</t>
+          <t>et.libero@google.ca</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>Bicol Region</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>magnis dis parturient montes, nascetur ridiculus mus. Proin vel arcu</t>
+          <t>ipsum. Suspendisse sagittis. Nullam vitae diam. Proin dolor. Nulla semper</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>Jena Jimenez</t>
+          <t>Salvador Glover</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>1-961-679-1865</t>
+          <t>(575) 447-4968</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>auctor.velit@outlook.net</t>
+          <t>nunc.mauris@outlook.net</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>China</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>South Island</t>
+          <t>South Chungcheong</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>eu elit. Nulla facilisi. Sed neque. Sed eget lacus. Mauris</t>
+          <t>posuere cubilia Curae Donec tincidunt. Donec vitae erat vel pede</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>Delilah Kramer</t>
+          <t>Damian Poole</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>1-465-924-4535</t>
+          <t>(206) 597-5437</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>faucibus@icloud.net</t>
+          <t>neque.venenatis.lacus@hotmail.com</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>faucibus id, libero. Donec consectetuer mauris id sapien. Cras dolor</t>
+          <t>rutrum non, hendrerit id, ante. Nunc mauris sapien, cursus in,</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>Hollee Shelton</t>
+          <t>Stephanie Shannon</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>1-295-451-4617</t>
+          <t>1-155-385-0744</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>consectetuer.adipiscing.elit@outlook.couk</t>
+          <t>pede.malesuada@icloud.net</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>Xīnán</t>
+          <t>Extremadura</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>ornare, lectus ante dictum mi, ac mattis velit justo nec</t>
+          <t>vel lectus. Cum sociis natoque penatibus et magnis dis parturient</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>McKenzie Price</t>
+          <t>Bethany Wright</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>1-514-138-8333</t>
+          <t>(511) 483-2832</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>libero.proin@protonmail.couk</t>
+          <t>ipsum.non.arcu@protonmail.net</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>Hertfordshire</t>
+          <t>Kogi</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>pede, malesuada vel, venenatis vel, faucibus id, libero. Donec consectetuer</t>
+          <t>feugiat placerat velit. Quisque varius. Nam porttitor scelerisque neque. Nullam</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Hunter Mcconnell</t>
+          <t>Ann Rose</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>1-215-985-1980</t>
+          <t>(231) 161-2666</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>sem.elit@aol.ca</t>
+          <t>eros.turpis.non@outlook.edu</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>Abruzzo</t>
+          <t>Risaralda</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>placerat. Cras dictum ultricies ligula. Nullam enim. Sed nulla ante,</t>
+          <t>sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Phelan Bright</t>
+          <t>Patrick Blevins</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>(467) 719-1057</t>
+          <t>(576) 234-5398</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>lacus.vestibulum@hotmail.com</t>
+          <t>erat.volutpat@google.edu</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Atacama</t>
+          <t>Limousin</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>odio. Nam interdum enim non nisi. Aenean eget metus. In</t>
+          <t>tincidunt, neque vitae semper egestas, urna justo faucibus lectus, a</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>Stuart Fulton</t>
+          <t>Donovan Dawson</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>(331) 278-1037</t>
+          <t>(655) 755-3542</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>eu.arcu@aol.com</t>
+          <t>a.sollicitudin@yahoo.net</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>Kogi</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>Pellentesque ut ipsum ac mi eleifend egestas. Sed pharetra, felis</t>
+          <t>et, commodo at, libero. Morbi accumsan laoreet ipsum. Curabitur consequat,</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Caleb Nash</t>
+          <t>Roth Maxwell</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>(468) 284-6017</t>
+          <t>(446) 893-7343</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>tempus.eu@outlook.couk</t>
+          <t>porttitor@hotmail.couk</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>North Island</t>
+          <t>Chocó</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>risus quis diam luctus lobortis. Class aptent taciti sociosqu ad</t>
+          <t>Suspendisse non leo. Vivamus nibh dolor, nonummy ac, feugiat non,</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Shelby Guthrie</t>
+          <t>Sylvester Matthews</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>1-559-876-6631</t>
+          <t>(756) 796-6409</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>neque@protonmail.ca</t>
+          <t>vel.vulputate@aol.net</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>Munster</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>Nunc mauris sapien, cursus in, hendrerit consectetuer, cursus et, magna.</t>
+          <t>sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>Victor Atkins</t>
+          <t>Brittany Christian</t>
         </is>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>1-726-373-6678</t>
+          <t>1-330-774-6979</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>sed@outlook.couk</t>
+          <t>sed@google.couk</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>Mecklenburg-Vorpommern</t>
+          <t>La Rioja</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>metus. Aliquam erat volutpat. Nulla facilisis. Suspendisse commodo tincidunt nibh.</t>
+          <t>arcu. Morbi sit amet massa. Quisque porttitor eros nec tellus.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>Kellie Vance</t>
+          <t>Griffith Tillman</t>
         </is>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>(697) 671-4267</t>
+          <t>1-367-815-8168</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>ligula@aol.edu</t>
+          <t>proin.eget@yahoo.net</t>
         </is>
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>Friuli-Venezia Giulia</t>
+          <t>East Region</t>
         </is>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>rhoncus. Donec est. Nunc ullamcorper, velit in aliquet lobortis, nisi</t>
+          <t>in consequat enim diam vel arcu. Curabitur ut odio vel</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>Shelly Briggs</t>
+          <t>Knox Le</t>
         </is>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>(736) 211-7322</t>
+          <t>(337) 560-6013</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>aliquet.lobortis@google.net</t>
+          <t>lorem.ut@yahoo.ca</t>
         </is>
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="E23" s="0" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>eu tempor erat neque non quam. Pellentesque habitant morbi tristique</t>
+          <t>fringilla, porttitor vulputate, posuere vulputate, lacus. Cras interdum. Nunc sollicitudin</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>Abigail Callahan</t>
+          <t>Genevieve Houston</t>
         </is>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>1-213-795-6373</t>
+          <t>(532) 463-8614</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>dui@protonmail.ca</t>
+          <t>enim@hotmail.edu</t>
         </is>
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="E24" s="0" t="inlineStr">
         <is>
-          <t>Centre</t>
+          <t>Kayseri</t>
         </is>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>massa. Vestibulum accumsan neque et nunc. Quisque ornare tortor at</t>
+          <t>Sed id risus quis diam luctus lobortis. Class aptent taciti</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>Shay Barton</t>
+          <t>Clayton Small</t>
         </is>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>(480) 581-2074</t>
+          <t>(468) 741-4278</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
-          <t>eros.nec.tellus@icloud.couk</t>
+          <t>ac.libero@hotmail.couk</t>
         </is>
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
-          <t>Tabasco</t>
+          <t>Limburg</t>
         </is>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>odio. Aliquam vulputate ullamcorper magna. Sed eu eros. Nam consequat</t>
+          <t>nisl sem, consequat nec, mollis vitae, posuere at, velit. Cras</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>Jonas Robbins</t>
+          <t>Violet Joseph</t>
         </is>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>1-930-659-0410</t>
+          <t>1-411-458-9275</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>nostra.per@outlook.net</t>
+          <t>justo.praesent.luctus@aol.org</t>
         </is>
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E26" s="0" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Zamboanga Peninsula</t>
         </is>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
-          <t>enim, gravida sit amet, dapibus id, blandit at, nisi. Cum</t>
+          <t>massa. Vestibulum accumsan neque et nunc. Quisque ornare tortor at</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Wylie Wilkerson</t>
+          <t>Lila Jones</t>
         </is>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>(632) 131-6243</t>
+          <t>1-958-849-7488</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
         <is>
-          <t>nisl.arcu.iaculis@hotmail.net</t>
+          <t>ac@outlook.org</t>
         </is>
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="E27" s="0" t="inlineStr">
         <is>
-          <t>North-East Region</t>
+          <t>South Island</t>
         </is>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
-          <t>rhoncus. Donec est. Nunc ullamcorper, velit in aliquet lobortis, nisi</t>
+          <t>commodo tincidunt nibh. Phasellus nulla. Integer vulputate, risus a ultricies</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>Ayanna Stark</t>
+          <t>Jemima Delacruz</t>
         </is>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>1-483-930-8539</t>
+          <t>(952) 614-5811</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
         <is>
-          <t>nullam.velit@hotmail.ca</t>
+          <t>dictum.mi.ac@google.net</t>
         </is>
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E28" s="0" t="inlineStr">
         <is>
-          <t>Somerset</t>
+          <t>Mersin</t>
         </is>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
-          <t>mi. Duis risus odio, auctor vitae, aliquet nec, imperdiet nec,</t>
+          <t>velit in aliquet lobortis, nisi nibh lacinia orci, consectetuer euismod</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>Drake Bruce</t>
+          <t>Malachi Griffith</t>
         </is>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>1-635-893-1573</t>
+          <t>(713) 318-4111</t>
         </is>
       </c>
       <c r="C29" s="0" t="inlineStr">
         <is>
-          <t>morbi.sit.amet@google.net</t>
+          <t>venenatis@google.ca</t>
         </is>
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E29" s="0" t="inlineStr">
         <is>
-          <t>Guanacaste</t>
+          <t>South Island</t>
         </is>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
-          <t>orci, in consequat enim diam vel arcu. Curabitur ut odio</t>
+          <t>porttitor tellus non magna. Nam ligula elit, pretium et, rutrum</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>Tallulah Winters</t>
+          <t>Velma Arnold</t>
         </is>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>(258) 633-6543</t>
+          <t>1-365-312-1458</t>
         </is>
       </c>
       <c r="C30" s="0" t="inlineStr">
         <is>
-          <t>ac@google.net</t>
+          <t>egestas.a@yahoo.edu</t>
         </is>
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="E30" s="0" t="inlineStr">
         <is>
-          <t>Southwestern Tagalog Region</t>
+          <t>North Jeolla</t>
         </is>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
-          <t>dapibus id, blandit at, nisi. Cum sociis natoque penatibus et</t>
+          <t>vitae mauris sit amet lorem semper auctor. Mauris vel turpis.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Cara Mckay</t>
+          <t>Bell Webster</t>
         </is>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>1-923-356-5657</t>
+          <t>(354) 357-7218</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
         <is>
-          <t>in.scelerisque.scelerisque@outlook.org</t>
+          <t>per.inceptos@outlook.net</t>
         </is>
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E31" s="0" t="inlineStr">
         <is>
-          <t>Tasmania</t>
+          <t>Veneto</t>
         </is>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
-          <t>tortor nibh sit amet orci. Ut sagittis lobortis mauris. Suspendisse</t>
+          <t>Aliquam vulputate ullamcorper magna. Sed eu eros. Nam consequat dolor</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>Galena Gallegos</t>
+          <t>Timothy Albert</t>
         </is>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>1-262-796-2634</t>
+          <t>1-560-452-6458</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
         <is>
-          <t>ligula.donec@yahoo.edu</t>
+          <t>velit.quisque@protonmail.com</t>
         </is>
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E32" s="0" t="inlineStr">
         <is>
-          <t>Kahramanmaraş</t>
+          <t>Moscow City</t>
         </is>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
-          <t>sem ut dolor dapibus gravida. Aliquam tincidunt, nunc ac mattis</t>
+          <t>pede, ultrices a, auctor non, feugiat nec, diam. Duis mi</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>Brenden Davenport</t>
+          <t>Carly Daniel</t>
         </is>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>1-465-868-7558</t>
+          <t>1-532-820-5630</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
         <is>
-          <t>est.nunc@google.ca</t>
+          <t>nisi.magna@google.ca</t>
         </is>
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="E33" s="0" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Newfoundland and Labrador</t>
         </is>
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
-          <t>eros. Nam consequat dolor vitae dolor. Donec fringilla. Donec feugiat</t>
+          <t>ipsum primis in faucibus orci luctus et ultrices posuere cubilia</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>Beau Moore</t>
+          <t>Melanie Patrick</t>
         </is>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>1-464-716-3752</t>
+          <t>1-591-343-4735</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
         <is>
-          <t>luctus.aliquet.odio@hotmail.edu</t>
+          <t>elit.pellentesque@yahoo.com</t>
         </is>
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
         <is>
-          <t>Kaliningrad Oblast</t>
+          <t>Nordrhein-Westphalen</t>
         </is>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
-          <t>bibendum fermentum metus. Aenean sed pede nec ante blandit viverra.</t>
+          <t>mauris sit amet lorem semper auctor. Mauris vel turpis. Aliquam</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>Aimee Riley</t>
+          <t>Emerald Trevino</t>
         </is>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>(360) 638-3688</t>
+          <t>1-268-227-3336</t>
         </is>
       </c>
       <c r="C35" s="0" t="inlineStr">
         <is>
-          <t>mi.lorem@yahoo.com</t>
+          <t>imperdiet.dictum.magna@hotmail.org</t>
         </is>
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
         <is>
-          <t>Ross-shire</t>
+          <t>Puglia</t>
         </is>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
-          <t>feugiat metus sit amet ante. Vivamus non lorem vitae odio</t>
+          <t>semper egestas, urna justo faucibus lectus, a sollicitudin orci sem</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>Ashely Hobbs</t>
+          <t>Lance Wade</t>
         </is>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>1-247-358-2224</t>
+          <t>1-574-194-1742</t>
         </is>
       </c>
       <c r="C36" s="0" t="inlineStr">
         <is>
-          <t>elit.a@icloud.com</t>
+          <t>nam@outlook.com</t>
         </is>
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E36" s="0" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
-          <t>ut cursus luctus, ipsum leo elementum sem, vitae aliquam eros</t>
+          <t>mi. Aliquam gravida mauris ut mi. Duis risus odio, auctor</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>Jordan Hogan</t>
+          <t>Wang Wolfe</t>
         </is>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>(725) 774-5541</t>
+          <t>(815) 763-6320</t>
         </is>
       </c>
       <c r="C37" s="0" t="inlineStr">
         <is>
-          <t>sit@aol.couk</t>
+          <t>feugiat.lorem.ipsum@yahoo.couk</t>
         </is>
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="E37" s="0" t="inlineStr">
         <is>
-          <t>Tabasco</t>
+          <t>Aragón</t>
         </is>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
-          <t>et, rutrum eu, ultrices sit amet, risus. Donec nibh enim,</t>
+          <t>Proin eget odio. Aliquam vulputate ullamcorper magna. Sed eu eros.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>Tobias Rowland</t>
+          <t>Nathaniel Roberson</t>
         </is>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>(513) 191-6740</t>
+          <t>(966) 387-2359</t>
         </is>
       </c>
       <c r="C38" s="0" t="inlineStr">
         <is>
-          <t>nullam.vitae@google.net</t>
+          <t>in@aol.couk</t>
         </is>
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E38" s="0" t="inlineStr">
         <is>
-          <t>Monmouthshire</t>
+          <t>Innlandet</t>
         </is>
       </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
-          <t>Aenean euismod mauris eu elit. Nulla facilisi. Sed neque. Sed</t>
+          <t>vel turpis. Aliquam adipiscing lobortis risus. In mi pede, nonummy</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>Leslie Mccoy</t>
+          <t>Katell Rios</t>
         </is>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>(552) 313-6565</t>
+          <t>(894) 211-1217</t>
         </is>
       </c>
       <c r="C39" s="0" t="inlineStr">
         <is>
-          <t>augue.eu@outlook.com</t>
+          <t>ac.eleifend@icloud.net</t>
         </is>
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E39" s="0" t="inlineStr">
         <is>
-          <t>South Island</t>
+          <t>Huáběi</t>
         </is>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
-          <t>arcu. Sed eu nibh vulputate mauris sagittis placerat. Cras dictum</t>
+          <t>magna. Ut tincidunt orci quis lectus. Nullam suscipit, est ac</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>Tyrone Campbell</t>
+          <t>Amena Moses</t>
         </is>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>(246) 793-8346</t>
+          <t>(586) 412-0861</t>
         </is>
       </c>
       <c r="C40" s="0" t="inlineStr">
         <is>
-          <t>et.tristique@protonmail.net</t>
+          <t>duis@google.net</t>
         </is>
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
         <is>
-          <t>North Island</t>
+          <t>Styria</t>
         </is>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
-          <t>felis eget varius ultrices, mauris ipsum porta elit, a feugiat</t>
+          <t>auctor quis, tristique ac, eleifend vitae, erat. Vivamus nisi. Mauris</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>Marah White</t>
+          <t>Vivian Norman</t>
         </is>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>(150) 216-0124</t>
+          <t>1-183-742-6845</t>
         </is>
       </c>
       <c r="C41" s="0" t="inlineStr">
         <is>
-          <t>ipsum.sodales@protonmail.net</t>
+          <t>vel.pede.blandit@outlook.couk</t>
         </is>
       </c>
       <c r="D41" s="0" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E41" s="0" t="inlineStr">
         <is>
-          <t>Euskadi</t>
+          <t>Bryansk Oblast</t>
         </is>
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
-          <t>non, hendrerit id, ante. Nunc mauris sapien, cursus in, hendrerit</t>
+          <t>erat, eget tincidunt dui augue eu tellus. Phasellus elit pede,</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>Britanni Cotton</t>
+          <t>Xaviera Mcknight</t>
         </is>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>(678) 978-8287</t>
+          <t>1-440-203-8635</t>
         </is>
       </c>
       <c r="C42" s="0" t="inlineStr">
         <is>
-          <t>dignissim.magna.a@icloud.edu</t>
+          <t>molestie@yahoo.com</t>
         </is>
       </c>
       <c r="D42" s="0" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E42" s="0" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>İzmir</t>
         </is>
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
-          <t>id, erat. Etiam vestibulum massa rutrum magna. Cras convallis convallis</t>
+          <t>velit dui, semper et, lacinia vitae, sodales at, velit. Pellentesque</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>Gareth Fulton</t>
+          <t>Linus Cline</t>
         </is>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>(255) 781-7309</t>
+          <t>(573) 769-7603</t>
         </is>
       </c>
       <c r="C43" s="0" t="inlineStr">
         <is>
-          <t>at.arcu@aol.com</t>
+          <t>ac.turpis@google.com</t>
         </is>
       </c>
       <c r="D43" s="0" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="E43" s="0" t="inlineStr">
         <is>
-          <t>Styria</t>
+          <t>Guainía</t>
         </is>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
-          <t>Etiam imperdiet dictum magna. Ut tincidunt orci quis lectus. Nullam</t>
+          <t>lobortis. Class aptent taciti sociosqu ad litora torquent per conubia</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>Adrian Hardy</t>
+          <t>Baker Neal</t>
         </is>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>(421) 727-4881</t>
+          <t>1-571-622-6912</t>
         </is>
       </c>
       <c r="C44" s="0" t="inlineStr">
         <is>
-          <t>dolor.fusce@aol.ca</t>
+          <t>vulputate.nisi@google.ca</t>
         </is>
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">
         <is>
-          <t>Los Ríos</t>
+          <t>Bayern</t>
         </is>
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
-          <t>odio. Aliquam vulputate ullamcorper magna. Sed eu eros. Nam consequat</t>
+          <t>eros. Proin ultrices. Duis volutpat nunc sit amet metus. Aliquam</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>Brenden Myers</t>
+          <t>Rama Williams</t>
         </is>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>1-929-432-4160</t>
+          <t>(348) 653-1157</t>
         </is>
       </c>
       <c r="C45" s="0" t="inlineStr">
         <is>
-          <t>auctor@protonmail.ca</t>
+          <t>phasellus.fermentum@aol.edu</t>
         </is>
       </c>
       <c r="D45" s="0" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E45" s="0" t="inlineStr">
         <is>
-          <t>Hà Nam</t>
+          <t>Yukon</t>
         </is>
       </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
-          <t>eleifend. Cras sed leo. Cras vehicula aliquet libero. Integer in</t>
+          <t>lobortis quam a felis ullamcorper viverra. Maecenas iaculis aliquet diam.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>Liberty Powers</t>
+          <t>Ifeoma Whitfield</t>
         </is>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>(231) 141-7005</t>
+          <t>(487) 918-3131</t>
         </is>
       </c>
       <c r="C46" s="0" t="inlineStr">
         <is>
-          <t>neque.et.nunc@hotmail.edu</t>
+          <t>accumsan.laoreet.ipsum@hotmail.couk</t>
         </is>
       </c>
       <c r="D46" s="0" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="E46" s="0" t="inlineStr">
         <is>
-          <t>La Rioja</t>
+          <t>Ontario</t>
         </is>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>diam at pretium aliquet, metus urna convallis erat, eget tincidunt</t>
+          <t>erat, eget tincidunt dui augue eu tellus. Phasellus elit pede,</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>Sylvia Scott</t>
+          <t>Minerva Alexander</t>
         </is>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>(588) 949-9325</t>
+          <t>(319) 657-3251</t>
         </is>
       </c>
       <c r="C47" s="0" t="inlineStr">
         <is>
-          <t>mi.felis.adipiscing@google.edu</t>
+          <t>nascetur@icloud.couk</t>
         </is>
       </c>
       <c r="D47" s="0" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E47" s="0" t="inlineStr">
         <is>
-          <t>Odessa oblast</t>
+          <t>Kujawsko-pomorskie</t>
         </is>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>urna, nec luctus felis purus ac tellus. Suspendisse sed dolor.</t>
+          <t>erat. Vivamus nisi. Mauris nulla. Integer urna. Vivamus molestie dapibus</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>Glenna Charles</t>
+          <t>Jared Velez</t>
         </is>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>1-778-651-4206</t>
+          <t>1-769-662-1342</t>
         </is>
       </c>
       <c r="C48" s="0" t="inlineStr">
         <is>
-          <t>sodales.at@aol.ca</t>
+          <t>justo.proin@icloud.org</t>
         </is>
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="E48" s="0" t="inlineStr">
         <is>
-          <t>Connacht</t>
+          <t>San José</t>
         </is>
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
-          <t>nulla at sem molestie sodales. Mauris blandit enim consequat purus.</t>
+          <t>Curabitur ut odio vel est tempor bibendum. Donec felis orci,</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>Bevis Serrano</t>
+          <t>Benedict Solomon</t>
         </is>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>(552) 248-5550</t>
+          <t>(822) 154-4456</t>
         </is>
       </c>
       <c r="C49" s="0" t="inlineStr">
         <is>
-          <t>eu.dolor@outlook.ca</t>
+          <t>sagittis@aol.org</t>
         </is>
       </c>
       <c r="D49" s="0" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="E49" s="0" t="inlineStr">
         <is>
-          <t>North Chungcheong</t>
+          <t>Dolnośląskie</t>
         </is>
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
-          <t>ut quam vel sapien imperdiet ornare. In faucibus. Morbi vehicula.</t>
+          <t>egestas lacinia. Sed congue, elit sed consequat auctor, nunc nulla</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>Halla O'donnell</t>
+          <t>Nora Marsh</t>
         </is>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>(740) 862-5708</t>
+          <t>1-666-587-5299</t>
         </is>
       </c>
       <c r="C50" s="0" t="inlineStr">
         <is>
-          <t>vestibulum.lorem.sit@outlook.edu</t>
+          <t>luctus@icloud.ca</t>
         </is>
       </c>
       <c r="D50" s="0" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E50" s="0" t="inlineStr">
         <is>
-          <t>Chernivtsi oblast</t>
+          <t>Thái Bình</t>
         </is>
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
-          <t>mi. Aliquam gravida mauris ut mi. Duis risus odio, auctor</t>
+          <t>Donec dignissim magna a tortor. Nunc commodo auctor velit. Aliquam</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>Yasir Cook</t>
+          <t>Cathleen Reynolds</t>
         </is>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>(409) 874-3762</t>
+          <t>1-761-568-8973</t>
         </is>
       </c>
       <c r="C51" s="0" t="inlineStr">
         <is>
-          <t>lacinia.orci.consectetuer@hotmail.edu</t>
+          <t>eros.non@outlook.com</t>
         </is>
       </c>
       <c r="D51" s="0" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E51" s="0" t="inlineStr">
         <is>
-          <t>South Island</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
-          <t>malesuada. Integer id magna et ipsum cursus vestibulum. Mauris magna.</t>
+          <t>Curabitur consequat, lectus sit amet luctus vulputate, nisi sem semper</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>Aladdin Casey</t>
+          <t>Ariana Stewart</t>
         </is>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>1-738-351-6117</t>
+          <t>1-354-371-3230</t>
         </is>
       </c>
       <c r="C52" s="0" t="inlineStr">
         <is>
-          <t>sem@icloud.com</t>
+          <t>orci.luctus.et@hotmail.com</t>
         </is>
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="E52" s="0" t="inlineStr">
         <is>
-          <t>Franche-Comté</t>
+          <t>Eastern Cape</t>
         </is>
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
-          <t>erat. Etiam vestibulum massa rutrum magna. Cras convallis convallis dolor.</t>
+          <t>eu enim. Etiam imperdiet dictum magna. Ut tincidunt orci quis</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>Perry Clay</t>
+          <t>Justina Powell</t>
         </is>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>(737) 738-1682</t>
+          <t>1-732-127-4373</t>
         </is>
       </c>
       <c r="C53" s="0" t="inlineStr">
         <is>
-          <t>nunc@protonmail.net</t>
+          <t>rutrum.justo@google.ca</t>
         </is>
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="E53" s="0" t="inlineStr">
         <is>
-          <t>Santa Catarina</t>
+          <t>Troms og Finnmark</t>
         </is>
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
-          <t>Aliquam tincidunt, nunc ac mattis ornare, lectus ante dictum mi,</t>
+          <t>enim, gravida sit amet, dapibus id, blandit at, nisi. Cum</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>Suki Warren</t>
+          <t>Cherokee Schroeder</t>
         </is>
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>1-528-145-8572</t>
+          <t>1-468-342-0268</t>
         </is>
       </c>
       <c r="C54" s="0" t="inlineStr">
         <is>
-          <t>porttitor.eros@outlook.couk</t>
+          <t>sit.amet@hotmail.edu</t>
         </is>
       </c>
       <c r="D54" s="0" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="E54" s="0" t="inlineStr">
         <is>
-          <t>Aragón</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
-          <t>Cras dictum ultricies ligula. Nullam enim. Sed nulla ante, iaculis</t>
+          <t>eget metus eu erat semper rutrum. Fusce dolor quam, elementum</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>Hilel Glenn</t>
+          <t>Judah Harrington</t>
         </is>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>1-833-219-6874</t>
+          <t>1-332-833-3562</t>
         </is>
       </c>
       <c r="C55" s="0" t="inlineStr">
         <is>
-          <t>senectus.et@icloud.ca</t>
+          <t>erat@google.com</t>
         </is>
       </c>
       <c r="D55" s="0" t="inlineStr">
@@ -1832,829 +1832,829 @@
       </c>
       <c r="E55" s="0" t="inlineStr">
         <is>
-          <t>Loreto</t>
+          <t>Meta</t>
         </is>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>aliquet, sem ut cursus luctus, ipsum leo elementum sem, vitae</t>
+          <t>lacus pede sagittis augue, eu tempor erat neque non quam.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>Len Glover</t>
+          <t>Keelie Wilkerson</t>
         </is>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>(878) 677-5034</t>
+          <t>1-785-418-2535</t>
         </is>
       </c>
       <c r="C56" s="0" t="inlineStr">
         <is>
-          <t>libero.integer.in@yahoo.couk</t>
+          <t>odio@aol.edu</t>
         </is>
       </c>
       <c r="D56" s="0" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="E56" s="0" t="inlineStr">
         <is>
-          <t>Dolnośląskie</t>
+          <t>North Island</t>
         </is>
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
-          <t>Donec non justo. Proin non massa non ante bibendum ullamcorper.</t>
+          <t>purus ac tellus. Suspendisse sed dolor. Fusce mi lorem, vehicula</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
         <is>
-          <t>Francis Swanson</t>
+          <t>Demetria Santos</t>
         </is>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>(729) 778-4556</t>
+          <t>1-367-225-3654</t>
         </is>
       </c>
       <c r="C57" s="0" t="inlineStr">
         <is>
-          <t>tempor@icloud.ca</t>
+          <t>dictum.magna.ut@icloud.com</t>
         </is>
       </c>
       <c r="D57" s="0" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="E57" s="0" t="inlineStr">
         <is>
-          <t>Lviv oblast</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
-          <t>neque. Nullam nisl. Maecenas malesuada fringilla est. Mauris eu turpis.</t>
+          <t>tristique senectus et netus et malesuada fames ac turpis egestas.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="inlineStr">
         <is>
-          <t>Zenaida Prince</t>
+          <t>Honorato Mathis</t>
         </is>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>1-738-768-2513</t>
+          <t>(804) 321-4857</t>
         </is>
       </c>
       <c r="C58" s="0" t="inlineStr">
         <is>
-          <t>vitae.risus@hotmail.com</t>
+          <t>eros.non.enim@aol.couk</t>
         </is>
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E58" s="0" t="inlineStr">
         <is>
-          <t>Lincolnshire</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t>accumsan laoreet ipsum. Curabitur consequat, lectus sit amet luctus vulputate,</t>
+          <t>arcu eu odio tristique pharetra. Quisque ac libero nec ligula</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="inlineStr">
         <is>
-          <t>Erich Pennington</t>
+          <t>Quyn Dixon</t>
         </is>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>(322) 217-8779</t>
+          <t>(381) 545-7411</t>
         </is>
       </c>
       <c r="C59" s="0" t="inlineStr">
         <is>
-          <t>eu.sem@icloud.couk</t>
+          <t>in.consequat.enim@hotmail.ca</t>
         </is>
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E59" s="0" t="inlineStr">
         <is>
-          <t>Franche-Comté</t>
+          <t>Central Region</t>
         </is>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
-          <t>Ut tincidunt orci quis lectus. Nullam suscipit, est ac facilisis</t>
+          <t>egestas a, scelerisque sed, sapien. Nunc pulvinar arcu et pede.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="inlineStr">
         <is>
-          <t>Channing Taylor</t>
+          <t>Allegra Spence</t>
         </is>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>(795) 423-3721</t>
+          <t>1-678-624-5522</t>
         </is>
       </c>
       <c r="C60" s="0" t="inlineStr">
         <is>
-          <t>cras.vehicula@yahoo.net</t>
+          <t>odio.tristique@hotmail.net</t>
         </is>
       </c>
       <c r="D60" s="0" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E60" s="0" t="inlineStr">
         <is>
-          <t>Luik</t>
+          <t>Alberta</t>
         </is>
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
-          <t>montes, nascetur ridiculus mus. Aenean eget magna. Suspendisse tristique neque</t>
+          <t>ipsum. Suspendisse non leo. Vivamus nibh dolor, nonummy ac, feugiat</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="inlineStr">
         <is>
-          <t>Hakeem Herring</t>
+          <t>Aurora Goodman</t>
         </is>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>1-671-544-9474</t>
+          <t>(967) 457-6845</t>
         </is>
       </c>
       <c r="C61" s="0" t="inlineStr">
         <is>
-          <t>dis@protonmail.net</t>
+          <t>venenatis.vel@protonmail.net</t>
         </is>
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E61" s="0" t="inlineStr">
         <is>
-          <t>Cartago</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
-          <t>at augue id ante dictum cursus. Nunc mauris elit, dictum</t>
+          <t>Phasellus fermentum convallis ligula. Donec luctus aliquet odio. Etiam ligula</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="inlineStr">
         <is>
-          <t>Emily Patrick</t>
+          <t>Aristotle Owens</t>
         </is>
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>1-673-584-7159</t>
+          <t>1-898-146-6125</t>
         </is>
       </c>
       <c r="C62" s="0" t="inlineStr">
         <is>
-          <t>ante@google.net</t>
+          <t>eu.sem@icloud.net</t>
         </is>
       </c>
       <c r="D62" s="0" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="E62" s="0" t="inlineStr">
         <is>
-          <t>Liguria</t>
+          <t>Coahuila</t>
         </is>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
-          <t>non enim commodo hendrerit. Donec porttitor tellus non magna. Nam</t>
+          <t>molestie tortor nibh sit amet orci. Ut sagittis lobortis mauris.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="inlineStr">
         <is>
-          <t>Jesse Alvarado</t>
+          <t>Owen Little</t>
         </is>
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>1-421-381-1130</t>
+          <t>(448) 390-6114</t>
         </is>
       </c>
       <c r="C63" s="0" t="inlineStr">
         <is>
-          <t>ac.nulla@google.couk</t>
+          <t>et.rutrum@outlook.net</t>
         </is>
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>India</t>
         </is>
       </c>
       <c r="E63" s="0" t="inlineStr">
         <is>
-          <t>North Region</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>orci tincidunt adipiscing. Mauris molestie pharetra nibh. Aliquam ornare, libero</t>
+          <t>Nullam enim. Sed nulla ante, iaculis nec, eleifend non, dapibus</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="inlineStr">
         <is>
-          <t>Mia Valentine</t>
+          <t>Brandon Rosales</t>
         </is>
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>1-819-878-3552</t>
+          <t>1-496-586-8529</t>
         </is>
       </c>
       <c r="C64" s="0" t="inlineStr">
         <is>
-          <t>aenean@protonmail.edu</t>
+          <t>vel.turpis@icloud.net</t>
         </is>
       </c>
       <c r="D64" s="0" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E64" s="0" t="inlineStr">
         <is>
-          <t>San Luis Potosí</t>
+          <t>Gävleborgs län</t>
         </is>
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
-          <t>volutpat nunc sit amet metus. Aliquam erat volutpat. Nulla facilisis.</t>
+          <t>elit fermentum risus, at fringilla purus mauris a nunc. In</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="inlineStr">
         <is>
-          <t>Cassidy Cole</t>
+          <t>Lenore Sims</t>
         </is>
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>(560) 282-5371</t>
+          <t>(941) 522-1872</t>
         </is>
       </c>
       <c r="C65" s="0" t="inlineStr">
         <is>
-          <t>lorem.ac.risus@icloud.org</t>
+          <t>vitae@aol.net</t>
         </is>
       </c>
       <c r="D65" s="0" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="E65" s="0" t="inlineStr">
         <is>
-          <t>Warwickshire</t>
+          <t>Swiętokrzyskie</t>
         </is>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
-          <t>malesuada fames ac turpis egestas. Aliquam fringilla cursus purus. Nullam</t>
+          <t>eu neque pellentesque massa lobortis ultrices. Vivamus rhoncus. Donec est.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="inlineStr">
         <is>
-          <t>Bernard Finch</t>
+          <t>Ryan Bishop</t>
         </is>
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>(907) 771-8575</t>
+          <t>(786) 413-7775</t>
         </is>
       </c>
       <c r="C66" s="0" t="inlineStr">
         <is>
-          <t>fusce.feugiat@hotmail.org</t>
+          <t>non.lacinia@icloud.couk</t>
         </is>
       </c>
       <c r="D66" s="0" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="E66" s="0" t="inlineStr">
         <is>
-          <t>Gauteng</t>
+          <t>Mexico City</t>
         </is>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>inceptos hymenaeos. Mauris ut quam vel sapien imperdiet ornare. In</t>
+          <t>erat neque non quam. Pellentesque habitant morbi tristique senectus et</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="inlineStr">
         <is>
-          <t>Charissa Lindsay</t>
+          <t>Robin Juarez</t>
         </is>
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>1-887-735-1232</t>
+          <t>(649) 185-6141</t>
         </is>
       </c>
       <c r="C67" s="0" t="inlineStr">
         <is>
-          <t>gravida.non.sollicitudin@yahoo.ca</t>
+          <t>risus@yahoo.couk</t>
         </is>
       </c>
       <c r="D67" s="0" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E67" s="0" t="inlineStr">
         <is>
-          <t>South Gyeongsang</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
-          <t>nec, cursus a, enim. Suspendisse aliquet, sem ut cursus luctus,</t>
+          <t>nulla at sem molestie sodales. Mauris blandit enim consequat purus.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="inlineStr">
         <is>
-          <t>Nevada Hicks</t>
+          <t>Cade Frazier</t>
         </is>
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>(574) 530-2625</t>
+          <t>1-937-444-3125</t>
         </is>
       </c>
       <c r="C68" s="0" t="inlineStr">
         <is>
-          <t>elit.curabitur@protonmail.couk</t>
+          <t>tellus@hotmail.couk</t>
         </is>
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="E68" s="0" t="inlineStr">
         <is>
-          <t>Zakarpattia oblast</t>
+          <t>Mexico City</t>
         </is>
       </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
-          <t>penatibus et magnis dis parturient montes, nascetur ridiculus mus. Aenean</t>
+          <t>commodo ipsum. Suspendisse non leo. Vivamus nibh dolor, nonummy ac,</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="inlineStr">
         <is>
-          <t>Declan Jackson</t>
+          <t>Hall Spencer</t>
         </is>
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>1-127-955-2575</t>
+          <t>1-887-547-9450</t>
         </is>
       </c>
       <c r="C69" s="0" t="inlineStr">
         <is>
-          <t>maecenas.malesuada@icloud.org</t>
+          <t>vitae.erat@icloud.net</t>
         </is>
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="E69" s="0" t="inlineStr">
         <is>
-          <t>Picardie</t>
+          <t>Jigawa</t>
         </is>
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
-          <t>nisi. Cum sociis natoque penatibus et magnis dis parturient montes,</t>
+          <t>tempor erat neque non quam. Pellentesque habitant morbi tristique senectus</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="inlineStr">
         <is>
-          <t>Lois Carver</t>
+          <t>Edward Nolan</t>
         </is>
       </c>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>(512) 997-6553</t>
+          <t>1-736-249-2043</t>
         </is>
       </c>
       <c r="C70" s="0" t="inlineStr">
         <is>
-          <t>enim.non@google.net</t>
+          <t>nisi.sem.semper@yahoo.net</t>
         </is>
       </c>
       <c r="D70" s="0" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="E70" s="0" t="inlineStr">
         <is>
-          <t>Zachodniopomorskie</t>
+          <t>North-East Region</t>
         </is>
       </c>
       <c r="F70" s="0" t="inlineStr">
         <is>
-          <t>ac urna. Ut tincidunt vehicula risus. Nulla eget metus eu</t>
+          <t>sit amet, consectetuer adipiscing elit. Curabitur sed tortor. Integer aliquam</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="inlineStr">
         <is>
-          <t>Otto Sims</t>
+          <t>Kessie Lloyd</t>
         </is>
       </c>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>(562) 784-7741</t>
+          <t>(729) 560-7513</t>
         </is>
       </c>
       <c r="C71" s="0" t="inlineStr">
         <is>
-          <t>velit.egestas@protonmail.com</t>
+          <t>quis@protonmail.org</t>
         </is>
       </c>
       <c r="D71" s="0" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="E71" s="0" t="inlineStr">
         <is>
-          <t>East Region</t>
+          <t>Saarland</t>
         </is>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
-          <t>sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus</t>
+          <t>aliquet. Phasellus fermentum convallis ligula. Donec luctus aliquet odio. Etiam</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="inlineStr">
         <is>
-          <t>Dieter Villarreal</t>
+          <t>Leigh Larsen</t>
         </is>
       </c>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>1-999-200-5744</t>
+          <t>1-500-641-8216</t>
         </is>
       </c>
       <c r="C72" s="0" t="inlineStr">
         <is>
-          <t>mollis.nec@protonmail.org</t>
+          <t>maecenas.malesuada@hotmail.couk</t>
         </is>
       </c>
       <c r="D72" s="0" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="E72" s="0" t="inlineStr">
         <is>
-          <t>Khyber Pakhtoonkhwa</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="F72" s="0" t="inlineStr">
         <is>
-          <t>dictum augue malesuada malesuada. Integer id magna et ipsum cursus</t>
+          <t>velit dui, semper et, lacinia vitae, sodales at, velit. Pellentesque</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="inlineStr">
         <is>
-          <t>Carl Harper</t>
+          <t>Dorian Shaffer</t>
         </is>
       </c>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>1-754-324-3063</t>
+          <t>(648) 621-9750</t>
         </is>
       </c>
       <c r="C73" s="0" t="inlineStr">
         <is>
-          <t>mauris.a.nunc@protonmail.net</t>
+          <t>quisque@outlook.com</t>
         </is>
       </c>
       <c r="D73" s="0" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="E73" s="0" t="inlineStr">
         <is>
-          <t>Podkarpackie</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="F73" s="0" t="inlineStr">
         <is>
-          <t>mi enim, condimentum eget, volutpat ornare, facilisis eget, ipsum. Donec</t>
+          <t>ullamcorper eu, euismod ac, fermentum vel, mauris. Integer sem elit,</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="inlineStr">
         <is>
-          <t>Aidan Flynn</t>
+          <t>Steel Crosby</t>
         </is>
       </c>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>(156) 483-1028</t>
+          <t>(394) 732-8438</t>
         </is>
       </c>
       <c r="C74" s="0" t="inlineStr">
         <is>
-          <t>quis.urna@hotmail.edu</t>
+          <t>nibh@hotmail.couk</t>
         </is>
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="E74" s="0" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Connacht</t>
         </is>
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
-          <t>sem, consequat nec, mollis vitae, posuere at, velit. Cras lorem</t>
+          <t>rhoncus. Donec est. Nunc ullamcorper, velit in aliquet lobortis, nisi</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="inlineStr">
         <is>
-          <t>Cole Frazier</t>
+          <t>Sophia Silva</t>
         </is>
       </c>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>1-376-694-8855</t>
+          <t>1-712-746-7247</t>
         </is>
       </c>
       <c r="C75" s="0" t="inlineStr">
         <is>
-          <t>eu.enim@hotmail.couk</t>
+          <t>consectetuer.rhoncus@protonmail.edu</t>
         </is>
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="E75" s="0" t="inlineStr">
         <is>
-          <t>Luxemburg</t>
+          <t>Lubuskie</t>
         </is>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
-          <t>penatibus et magnis dis parturient montes, nascetur ridiculus mus. Proin</t>
+          <t>Duis cursus, diam at pretium aliquet, metus urna convallis erat,</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="inlineStr">
         <is>
-          <t>Ezra Johnson</t>
+          <t>Adara Hutchinson</t>
         </is>
       </c>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>1-203-331-2025</t>
+          <t>1-678-739-1683</t>
         </is>
       </c>
       <c r="C76" s="0" t="inlineStr">
         <is>
-          <t>nunc.sit.amet@icloud.edu</t>
+          <t>sit.amet.ante@outlook.couk</t>
         </is>
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="E76" s="0" t="inlineStr">
         <is>
-          <t>North Island</t>
+          <t>Mpumalanga</t>
         </is>
       </c>
       <c r="F76" s="0" t="inlineStr">
         <is>
-          <t>ultrices sit amet, risus. Donec nibh enim, gravida sit amet,</t>
+          <t>nunc sed pede. Cum sociis natoque penatibus et magnis dis</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="inlineStr">
         <is>
-          <t>Clark Sanchez</t>
+          <t>Delilah Benton</t>
         </is>
       </c>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>1-686-523-4102</t>
+          <t>(296) 418-8855</t>
         </is>
       </c>
       <c r="C77" s="0" t="inlineStr">
         <is>
-          <t>in.aliquet@google.net</t>
+          <t>pede.sagittis@yahoo.com</t>
         </is>
       </c>
       <c r="D77" s="0" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="E77" s="0" t="inlineStr">
         <is>
-          <t>Đắk Nông</t>
+          <t>Kherson oblast</t>
         </is>
       </c>
       <c r="F77" s="0" t="inlineStr">
         <is>
-          <t>risus. Nulla eget metus eu erat semper rutrum. Fusce dolor</t>
+          <t>in, hendrerit consectetuer, cursus et, magna. Praesent interdum ligula eu</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="inlineStr">
         <is>
-          <t>Tate Day</t>
+          <t>Justin Whitaker</t>
         </is>
       </c>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t>(224) 327-4341</t>
+          <t>(361) 522-2564</t>
         </is>
       </c>
       <c r="C78" s="0" t="inlineStr">
         <is>
-          <t>viverra@google.org</t>
+          <t>nec@outlook.couk</t>
         </is>
       </c>
       <c r="D78" s="0" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E78" s="0" t="inlineStr">
         <is>
-          <t>Limón</t>
+          <t>Xīběi</t>
         </is>
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
-          <t>massa. Integer vitae nibh. Donec est mauris, rhoncus id, mollis</t>
+          <t>dapibus id, blandit at, nisi. Cum sociis natoque penatibus et</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="inlineStr">
         <is>
-          <t>Hakeem Bush</t>
+          <t>Katelyn Mccarty</t>
         </is>
       </c>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>1-297-844-2454</t>
+          <t>(262) 511-6249</t>
         </is>
       </c>
       <c r="C79" s="0" t="inlineStr">
         <is>
-          <t>rutrum.magna.cras@hotmail.com</t>
+          <t>sem.mollis.dui@aol.edu</t>
         </is>
       </c>
       <c r="D79" s="0" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E79" s="0" t="inlineStr">
         <is>
-          <t>Overijssel</t>
+          <t>Maranhão</t>
         </is>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
-          <t>penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec</t>
+          <t>urna convallis erat, eget tincidunt dui augue eu tellus. Phasellus</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="inlineStr">
         <is>
-          <t>Fiona Finley</t>
+          <t>Arthur Dotson</t>
         </is>
       </c>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>1-245-112-5192</t>
+          <t>1-643-859-9034</t>
         </is>
       </c>
       <c r="C80" s="0" t="inlineStr">
         <is>
-          <t>phasellus.fermentum@yahoo.couk</t>
+          <t>a@protonmail.edu</t>
         </is>
       </c>
       <c r="D80" s="0" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E80" s="0" t="inlineStr">
         <is>
-          <t>Ninh Thuận</t>
+          <t>West Region</t>
         </is>
       </c>
       <c r="F80" s="0" t="inlineStr">
         <is>
-          <t>Vivamus nibh dolor, nonummy ac, feugiat non, lobortis quis, pede.</t>
+          <t>montes, nascetur ridiculus mus. Donec dignissim magna a tortor. Nunc</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="inlineStr">
         <is>
-          <t>Rebecca Rose</t>
+          <t>Melvin Johnson</t>
         </is>
       </c>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>1-446-379-6922</t>
+          <t>1-665-258-3888</t>
         </is>
       </c>
       <c r="C81" s="0" t="inlineStr">
         <is>
-          <t>accumsan@aol.org</t>
+          <t>volutpat.nulla.facilisis@icloud.com</t>
         </is>
       </c>
       <c r="D81" s="0" t="inlineStr">
@@ -2664,652 +2664,652 @@
       </c>
       <c r="E81" s="0" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz</t>
+          <t>Pará</t>
         </is>
       </c>
       <c r="F81" s="0" t="inlineStr">
         <is>
-          <t>Donec est. Nunc ullamcorper, velit in aliquet lobortis, nisi nibh</t>
+          <t>justo. Praesent luctus. Curabitur egestas nunc sed libero. Proin sed</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="inlineStr">
         <is>
-          <t>Clare Ayers</t>
+          <t>Buckminster Vinson</t>
         </is>
       </c>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>(446) 250-7633</t>
+          <t>(478) 521-8497</t>
         </is>
       </c>
       <c r="C82" s="0" t="inlineStr">
         <is>
-          <t>sociis.natoque@protonmail.org</t>
+          <t>molestie.pharetra@google.com</t>
         </is>
       </c>
       <c r="D82" s="0" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E82" s="0" t="inlineStr">
         <is>
-          <t>Waals-Brabant</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
-          <t>Morbi sit amet massa. Quisque porttitor eros nec tellus. Nunc</t>
+          <t>turpis egestas. Aliquam fringilla cursus purus. Nullam scelerisque neque sed</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="inlineStr">
         <is>
-          <t>Sawyer Patton</t>
+          <t>Perry Pickett</t>
         </is>
       </c>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>(211) 224-1949</t>
+          <t>1-657-950-6563</t>
         </is>
       </c>
       <c r="C83" s="0" t="inlineStr">
         <is>
-          <t>luctus.aliquet@aol.net</t>
+          <t>aenean.sed@protonmail.ca</t>
         </is>
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E83" s="0" t="inlineStr">
         <is>
-          <t>Basilicata</t>
+          <t>North Maluku</t>
         </is>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
-          <t>ullamcorper, nisl arcu iaculis enim, sit amet ornare lectus justo</t>
+          <t>at arcu. Vestibulum ante ipsum primis in faucibus orci luctus</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="inlineStr">
         <is>
-          <t>Kuame Wilder</t>
+          <t>Noel Vinson</t>
         </is>
       </c>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>1-814-606-6962</t>
+          <t>1-367-328-5025</t>
         </is>
       </c>
       <c r="C84" s="0" t="inlineStr">
         <is>
-          <t>nunc.ullamcorper.eu@google.org</t>
+          <t>est.ac@google.net</t>
         </is>
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="E84" s="0" t="inlineStr">
         <is>
-          <t>Ankara</t>
+          <t>Tarapacá</t>
         </is>
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
-          <t>luctus. Curabitur egestas nunc sed libero. Proin sed turpis nec</t>
+          <t>quis urna. Nunc quis arcu vel quam dignissim pharetra. Nam</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="inlineStr">
         <is>
-          <t>Jade Patel</t>
+          <t>Steven Strong</t>
         </is>
       </c>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>(689) 842-9256</t>
+          <t>1-372-637-2964</t>
         </is>
       </c>
       <c r="C85" s="0" t="inlineStr">
         <is>
-          <t>duis.dignissim.tempor@aol.net</t>
+          <t>faucibus.orci@yahoo.com</t>
         </is>
       </c>
       <c r="D85" s="0" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="E85" s="0" t="inlineStr">
         <is>
-          <t>Gangwon</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
-          <t>interdum ligula eu enim. Etiam imperdiet dictum magna. Ut tincidunt</t>
+          <t>erat, in consectetuer ipsum nunc id enim. Curabitur massa. Vestibulum</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="inlineStr">
         <is>
-          <t>Galena Livingston</t>
+          <t>Kermit Delaney</t>
         </is>
       </c>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>(343) 509-4303</t>
+          <t>(761) 451-6424</t>
         </is>
       </c>
       <c r="C86" s="0" t="inlineStr">
         <is>
-          <t>pellentesque.ut@aol.net</t>
+          <t>facilisis.facilisis.magna@google.edu</t>
         </is>
       </c>
       <c r="D86" s="0" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="E86" s="0" t="inlineStr">
         <is>
-          <t>Limón</t>
+          <t>Western Cape</t>
         </is>
       </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
-          <t>convallis convallis dolor. Quisque tincidunt pede ac urna. Ut tincidunt</t>
+          <t>Aliquam auctor, velit eget laoreet posuere, enim nisl elementum purus,</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="inlineStr">
         <is>
-          <t>Ori Briggs</t>
+          <t>Jordan Diaz</t>
         </is>
       </c>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>1-938-366-6624</t>
+          <t>(854) 765-3822</t>
         </is>
       </c>
       <c r="C87" s="0" t="inlineStr">
         <is>
-          <t>est.mollis.non@yahoo.couk</t>
+          <t>risus.odio@hotmail.org</t>
         </is>
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="E87" s="0" t="inlineStr">
         <is>
-          <t>West Papua</t>
+          <t>Borno</t>
         </is>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>Etiam laoreet, libero et tristique pellentesque, tellus sem mollis dui,</t>
+          <t>scelerisque, lorem ipsum sodales purus, in molestie tortor nibh sit</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="inlineStr">
         <is>
-          <t>Hammett Adams</t>
+          <t>Honorato Rush</t>
         </is>
       </c>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>(132) 808-5916</t>
+          <t>(615) 316-1850</t>
         </is>
       </c>
       <c r="C88" s="0" t="inlineStr">
         <is>
-          <t>nulla@hotmail.couk</t>
+          <t>nostra.per.inceptos@hotmail.couk</t>
         </is>
       </c>
       <c r="D88" s="0" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="E88" s="0" t="inlineStr">
         <is>
-          <t>Valle d'Aosta</t>
+          <t>Lower Austria</t>
         </is>
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
-          <t>arcu. Sed eu nibh vulputate mauris sagittis placerat. Cras dictum</t>
+          <t>eget magna. Suspendisse tristique neque venenatis lacus. Etiam bibendum fermentum</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="inlineStr">
         <is>
-          <t>Callie Daugherty</t>
+          <t>Colt O'Neill</t>
         </is>
       </c>
       <c r="B89" s="0" t="inlineStr">
         <is>
-          <t>1-432-227-8898</t>
+          <t>(149) 456-4821</t>
         </is>
       </c>
       <c r="C89" s="0" t="inlineStr">
         <is>
-          <t>sem.consequat.nec@aol.com</t>
+          <t>lacinia.orci.consectetuer@google.net</t>
         </is>
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E89" s="0" t="inlineStr">
         <is>
-          <t>Bauchi</t>
+          <t>Tarapacá</t>
         </is>
       </c>
       <c r="F89" s="0" t="inlineStr">
         <is>
-          <t>lacus. Quisque imperdiet, erat nonummy ultricies ornare, elit elit fermentum</t>
+          <t>id, ante. Nunc mauris sapien, cursus in, hendrerit consectetuer, cursus</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="inlineStr">
         <is>
-          <t>Gray Richards</t>
+          <t>Fritz Carney</t>
         </is>
       </c>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t>1-617-845-6607</t>
+          <t>1-515-281-8703</t>
         </is>
       </c>
       <c r="C90" s="0" t="inlineStr">
         <is>
-          <t>ultrices.sit.amet@yahoo.com</t>
+          <t>suspendisse.dui@google.ca</t>
         </is>
       </c>
       <c r="D90" s="0" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E90" s="0" t="inlineStr">
         <is>
-          <t>South Island</t>
+          <t>Vestland</t>
         </is>
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
-          <t>nibh. Quisque nonummy ipsum non arcu. Vivamus sit amet risus.</t>
+          <t>nibh vulputate mauris sagittis placerat. Cras dictum ultricies ligula. Nullam</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="inlineStr">
         <is>
-          <t>Tiger Booker</t>
+          <t>Kim Winters</t>
         </is>
       </c>
       <c r="B91" s="0" t="inlineStr">
         <is>
-          <t>(862) 776-8486</t>
+          <t>1-282-654-7322</t>
         </is>
       </c>
       <c r="C91" s="0" t="inlineStr">
         <is>
-          <t>nullam.enim@hotmail.couk</t>
+          <t>sodales.elit@icloud.com</t>
         </is>
       </c>
       <c r="D91" s="0" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>China</t>
         </is>
       </c>
       <c r="E91" s="0" t="inlineStr">
         <is>
-          <t>Davao Region</t>
+          <t>Indiana</t>
         </is>
       </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
-          <t>tristique neque venenatis lacus. Etiam bibendum fermentum metus. Aenean sed</t>
+          <t>amet, consectetuer adipiscing elit. Curabitur sed tortor. Integer aliquam adipiscing</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="inlineStr">
         <is>
-          <t>Aretha Pope</t>
+          <t>Kathleen Johnston</t>
         </is>
       </c>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>(766) 356-2128</t>
+          <t>1-464-321-1438</t>
         </is>
       </c>
       <c r="C92" s="0" t="inlineStr">
         <is>
-          <t>vehicula.et.rutrum@hotmail.com</t>
+          <t>dictum@google.net</t>
         </is>
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E92" s="0" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>East Region</t>
         </is>
       </c>
       <c r="F92" s="0" t="inlineStr">
         <is>
-          <t>nec ante. Maecenas mi felis, adipiscing fringilla, porttitor vulputate, posuere</t>
+          <t>urna et arcu imperdiet ullamcorper. Duis at lacus. Quisque purus</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="inlineStr">
         <is>
-          <t>Dai Bass</t>
+          <t>Kenyon Stephenson</t>
         </is>
       </c>
       <c r="B93" s="0" t="inlineStr">
         <is>
-          <t>(638) 243-8897</t>
+          <t>1-567-274-8315</t>
         </is>
       </c>
       <c r="C93" s="0" t="inlineStr">
         <is>
-          <t>nec@yahoo.ca</t>
+          <t>nam.ligula.elit@yahoo.org</t>
         </is>
       </c>
       <c r="D93" s="0" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E93" s="0" t="inlineStr">
         <is>
-          <t>East Region</t>
+          <t>North-East Region</t>
         </is>
       </c>
       <c r="F93" s="0" t="inlineStr">
         <is>
-          <t>pede et risus. Quisque libero lacus, varius et, euismod et,</t>
+          <t>Cum sociis natoque penatibus et magnis dis parturient montes, nascetur</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="inlineStr">
         <is>
-          <t>James Shepard</t>
+          <t>Caesar Cook</t>
         </is>
       </c>
       <c r="B94" s="0" t="inlineStr">
         <is>
-          <t>1-110-634-2285</t>
+          <t>(862) 225-1545</t>
         </is>
       </c>
       <c r="C94" s="0" t="inlineStr">
         <is>
-          <t>lorem@google.couk</t>
+          <t>sodales.mauris@google.ca</t>
         </is>
       </c>
       <c r="D94" s="0" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="E94" s="0" t="inlineStr">
         <is>
-          <t>Baden Württemberg</t>
+          <t>Mpumalanga</t>
         </is>
       </c>
       <c r="F94" s="0" t="inlineStr">
         <is>
-          <t>malesuada ut, sem. Nulla interdum. Curabitur dictum. Phasellus in felis.</t>
+          <t>mauris elit, dictum eu, eleifend nec, malesuada ut, sem. Nulla</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="inlineStr">
         <is>
-          <t>Anjolie Carlson</t>
+          <t>Wylie Levine</t>
         </is>
       </c>
       <c r="B95" s="0" t="inlineStr">
         <is>
-          <t>1-182-460-4332</t>
+          <t>(857) 773-3246</t>
         </is>
       </c>
       <c r="C95" s="0" t="inlineStr">
         <is>
-          <t>nec.enim@google.ca</t>
+          <t>morbi.non.sapien@google.edu</t>
         </is>
       </c>
       <c r="D95" s="0" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="E95" s="0" t="inlineStr">
         <is>
-          <t>Galicia</t>
+          <t>Wisconsin</t>
         </is>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
-          <t>mauris id sapien. Cras dolor dolor, tempus non, lacinia at,</t>
+          <t>malesuada. Integer id magna et ipsum cursus vestibulum. Mauris magna.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="inlineStr">
         <is>
-          <t>Shoshana Cooper</t>
+          <t>Lesley Martinez</t>
         </is>
       </c>
       <c r="B96" s="0" t="inlineStr">
         <is>
-          <t>1-427-482-9172</t>
+          <t>(849) 513-3498</t>
         </is>
       </c>
       <c r="C96" s="0" t="inlineStr">
         <is>
-          <t>dolor@icloud.com</t>
+          <t>tellus.faucibus.leo@google.edu</t>
         </is>
       </c>
       <c r="D96" s="0" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E96" s="0" t="inlineStr">
         <is>
-          <t>Viken</t>
+          <t>Arequipa</t>
         </is>
       </c>
       <c r="F96" s="0" t="inlineStr">
         <is>
-          <t>nascetur ridiculus mus. Aenean eget magna. Suspendisse tristique neque venenatis</t>
+          <t>et malesuada fames ac turpis egestas. Fusce aliquet magna a</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="inlineStr">
         <is>
-          <t>India Nolan</t>
+          <t>Damon Rice</t>
         </is>
       </c>
       <c r="B97" s="0" t="inlineStr">
         <is>
-          <t>1-644-632-4441</t>
+          <t>1-627-132-2473</t>
         </is>
       </c>
       <c r="C97" s="0" t="inlineStr">
         <is>
-          <t>mi.lorem@google.net</t>
+          <t>amet@icloud.edu</t>
         </is>
       </c>
       <c r="D97" s="0" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>India</t>
         </is>
       </c>
       <c r="E97" s="0" t="inlineStr">
         <is>
-          <t>Brussels Hoofdstedelijk Gewest</t>
+          <t>Kon Tum</t>
         </is>
       </c>
       <c r="F97" s="0" t="inlineStr">
         <is>
-          <t>mus. Proin vel nisl. Quisque fringilla euismod enim. Etiam gravida</t>
+          <t>pede et risus. Quisque libero lacus, varius et, euismod et,</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="inlineStr">
         <is>
-          <t>Shea Stevenson</t>
+          <t>Nigel Gardner</t>
         </is>
       </c>
       <c r="B98" s="0" t="inlineStr">
         <is>
-          <t>(374) 631-2521</t>
+          <t>1-317-672-9620</t>
         </is>
       </c>
       <c r="C98" s="0" t="inlineStr">
         <is>
-          <t>ut.odio@google.couk</t>
+          <t>fringilla.purus@yahoo.ca</t>
         </is>
       </c>
       <c r="D98" s="0" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="E98" s="0" t="inlineStr">
         <is>
-          <t>Michoacán</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="F98" s="0" t="inlineStr">
         <is>
-          <t>non sapien molestie orci tincidunt adipiscing. Mauris molestie pharetra nibh.</t>
+          <t>Nullam scelerisque neque sed sem egestas blandit. Nam nulla magna,</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="inlineStr">
         <is>
-          <t>Miriam Joseph</t>
+          <t>Bernard Goodman</t>
         </is>
       </c>
       <c r="B99" s="0" t="inlineStr">
         <is>
-          <t>1-465-928-6676</t>
+          <t>1-713-476-2810</t>
         </is>
       </c>
       <c r="C99" s="0" t="inlineStr">
         <is>
-          <t>suspendisse.eleifend@aol.edu</t>
+          <t>neque@protonmail.com</t>
         </is>
       </c>
       <c r="D99" s="0" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="E99" s="0" t="inlineStr">
         <is>
-          <t>Waals-Brabant</t>
+          <t>Cartago</t>
         </is>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
-          <t>Nulla facilisis. Suspendisse commodo tincidunt nibh. Phasellus nulla. Integer vulputate,</t>
+          <t>felis eget varius ultrices, mauris ipsum porta elit, a feugiat</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="inlineStr">
         <is>
-          <t>Daryl Cummings</t>
+          <t>Kiara Koch</t>
         </is>
       </c>
       <c r="B100" s="0" t="inlineStr">
         <is>
-          <t>(883) 863-4629</t>
+          <t>(243) 625-6220</t>
         </is>
       </c>
       <c r="C100" s="0" t="inlineStr">
         <is>
-          <t>blandit.enim.consequat@aol.com</t>
+          <t>non.hendrerit@hotmail.ca</t>
         </is>
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E100" s="0" t="inlineStr">
         <is>
-          <t>Noord Holland</t>
+          <t>New Brunswick</t>
         </is>
       </c>
       <c r="F100" s="0" t="inlineStr">
         <is>
-          <t>sollicitudin adipiscing ligula. Aenean gravida nunc sed pede. Cum sociis</t>
+          <t>volutpat nunc sit amet metus. Aliquam erat volutpat. Nulla facilisis.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="inlineStr">
         <is>
-          <t>Cameron Mathews</t>
+          <t>Stuart Woodard</t>
         </is>
       </c>
       <c r="B101" s="0" t="inlineStr">
         <is>
-          <t>1-740-430-7246</t>
+          <t>(684) 384-1884</t>
         </is>
       </c>
       <c r="C101" s="0" t="inlineStr">
         <is>
-          <t>eu@yahoo.couk</t>
+          <t>non.quam@yahoo.couk</t>
         </is>
       </c>
       <c r="D101" s="0" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>China</t>
         </is>
       </c>
       <c r="E101" s="0" t="inlineStr">
         <is>
-          <t>Wigtownshire</t>
+          <t>KwaZulu-Natal</t>
         </is>
       </c>
       <c r="F101" s="0" t="inlineStr">
         <is>
-          <t>Fusce mi lorem, vehicula et, rutrum eu, ultrices sit amet,</t>
+          <t>ipsum porta elit, a feugiat tellus lorem eu metus. In</t>
         </is>
       </c>
     </row>
